--- a/CODE/Anomaly_detect/dataset/class1/86/Simulink_Data2.xlsx
+++ b/CODE/Anomaly_detect/dataset/class1/86/Simulink_Data2.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PS!\CO2_Anomaly_detection\CODE\Anomaly_detect\dataset\class1\86\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11295"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="144">
   <si>
     <t>Time2</t>
   </si>
@@ -435,24 +441,6 @@
   </si>
   <si>
     <t>h_sim</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.13081</t>
-  </si>
-  <si>
-    <t>0.1633</t>
-  </si>
-  <si>
-    <t>0.3285</t>
-  </si>
-  <si>
-    <t>0.69884</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>tailNo2</t>
@@ -470,7 +458,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -493,44 +481,324 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O1048576"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
-    <col min="7" max="7" width="13.7109375" customWidth="true"/>
-    <col min="8" max="8" width="9.7109375" customWidth="true"/>
-    <col min="9" max="9" width="7.7109375" customWidth="true"/>
-    <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="7.7109375" customWidth="true"/>
-    <col min="12" max="12" width="7.7109375" customWidth="true"/>
-    <col min="13" max="13" width="7.7109375" customWidth="true"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="10" width="7.7109375" customWidth="1"/>
+    <col min="12" max="13" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,17 +829,17 @@
       <c r="J1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,17 +870,17 @@
       <c r="J2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>140</v>
+      <c r="K2">
+        <v>0.04</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,17 +911,17 @@
       <c r="J3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>141</v>
+      <c r="K3">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -684,17 +952,17 @@
       <c r="J4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>141</v>
+      <c r="K4">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -725,17 +993,17 @@
       <c r="J5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>141</v>
+      <c r="K5">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,17 +1034,17 @@
       <c r="J6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>141</v>
+      <c r="K6">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,17 +1075,17 @@
       <c r="J7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>141</v>
+      <c r="K7">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -848,17 +1116,17 @@
       <c r="J8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>141</v>
+      <c r="K8">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,17 +1157,17 @@
       <c r="J9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>141</v>
+      <c r="K9">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,17 +1198,17 @@
       <c r="J10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>141</v>
+      <c r="K10">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -971,17 +1239,17 @@
       <c r="J11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>141</v>
+      <c r="K11">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1012,17 +1280,17 @@
       <c r="J12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>141</v>
+      <c r="K12">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1053,17 +1321,17 @@
       <c r="J13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>141</v>
+      <c r="K13">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,17 +1362,17 @@
       <c r="J14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>141</v>
+      <c r="K14">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1135,17 +1403,17 @@
       <c r="J15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>141</v>
+      <c r="K15">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1176,17 +1444,17 @@
       <c r="J16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>141</v>
+      <c r="K16">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1217,17 +1485,17 @@
       <c r="J17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>141</v>
+      <c r="K17">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1258,17 +1526,17 @@
       <c r="J18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>141</v>
+      <c r="K18">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1299,17 +1567,17 @@
       <c r="J19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>141</v>
+      <c r="K19">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1340,17 +1608,17 @@
       <c r="J20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>141</v>
+      <c r="K20">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1381,17 +1649,17 @@
       <c r="J21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>141</v>
+      <c r="K21">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1422,17 +1690,17 @@
       <c r="J22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>141</v>
+      <c r="K22">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1463,17 +1731,17 @@
       <c r="J23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>142</v>
+      <c r="K23">
+        <v>0.1633</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1504,17 +1772,17 @@
       <c r="J24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>142</v>
+      <c r="K24">
+        <v>0.1633</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1545,17 +1813,17 @@
       <c r="J25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>142</v>
+      <c r="K25">
+        <v>0.1633</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1586,17 +1854,17 @@
       <c r="J26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>142</v>
+      <c r="K26">
+        <v>0.1633</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1627,17 +1895,17 @@
       <c r="J27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>142</v>
+      <c r="K27">
+        <v>0.1633</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1668,17 +1936,17 @@
       <c r="J28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>142</v>
+      <c r="K28">
+        <v>0.1633</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1709,17 +1977,17 @@
       <c r="J29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>142</v>
+      <c r="K29">
+        <v>0.1633</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1750,17 +2018,17 @@
       <c r="J30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>142</v>
+      <c r="K30">
+        <v>0.1633</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1791,17 +2059,17 @@
       <c r="J31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>142</v>
+      <c r="K31">
+        <v>0.1633</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1832,17 +2100,17 @@
       <c r="J32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>142</v>
+      <c r="K32">
+        <v>0.1633</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1873,17 +2141,17 @@
       <c r="J33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>141</v>
+      <c r="K33">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1914,17 +2182,17 @@
       <c r="J34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>141</v>
+      <c r="K34">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1955,17 +2223,17 @@
       <c r="J35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>141</v>
+      <c r="K35">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1996,17 +2264,17 @@
       <c r="J36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>141</v>
+      <c r="K36">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2037,17 +2305,17 @@
       <c r="J37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>141</v>
+      <c r="K37">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2078,17 +2346,17 @@
       <c r="J38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>141</v>
+      <c r="K38">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2119,17 +2387,17 @@
       <c r="J39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>141</v>
+      <c r="K39">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2160,17 +2428,17 @@
       <c r="J40" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>141</v>
+      <c r="K40">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -2201,17 +2469,17 @@
       <c r="J41" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>141</v>
+      <c r="K41">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -2242,17 +2510,17 @@
       <c r="J42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>141</v>
+      <c r="K42">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -2283,17 +2551,17 @@
       <c r="J43" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>141</v>
+      <c r="K43">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -2324,17 +2592,17 @@
       <c r="J44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>141</v>
+      <c r="K44">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -2365,17 +2633,17 @@
       <c r="J45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>141</v>
+      <c r="K45">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -2406,17 +2674,17 @@
       <c r="J46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>141</v>
+      <c r="K46">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -2447,17 +2715,17 @@
       <c r="J47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>141</v>
+      <c r="K47">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -2488,17 +2756,17 @@
       <c r="J48" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>141</v>
+      <c r="K48">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2529,17 +2797,17 @@
       <c r="J49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>141</v>
+      <c r="K49">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2570,17 +2838,17 @@
       <c r="J50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>141</v>
+      <c r="K50">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2611,17 +2879,17 @@
       <c r="J51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>143</v>
+      <c r="K51">
+        <v>0.32850000000000001</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2652,17 +2920,17 @@
       <c r="J52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>143</v>
+      <c r="K52">
+        <v>0.32850000000000001</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2693,17 +2961,17 @@
       <c r="J53" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>143</v>
+      <c r="K53">
+        <v>0.32850000000000001</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2734,17 +3002,17 @@
       <c r="J54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>143</v>
+      <c r="K54">
+        <v>0.32850000000000001</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2775,17 +3043,17 @@
       <c r="J55" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>143</v>
+      <c r="K55">
+        <v>0.32850000000000001</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2816,17 +3084,17 @@
       <c r="J56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>143</v>
+      <c r="K56">
+        <v>0.32850000000000001</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -2857,17 +3125,17 @@
       <c r="J57" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>143</v>
+      <c r="K57">
+        <v>0.32850000000000001</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2898,17 +3166,17 @@
       <c r="J58" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>143</v>
+      <c r="K58">
+        <v>0.32850000000000001</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -2939,17 +3207,17 @@
       <c r="J59" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>143</v>
+      <c r="K59">
+        <v>0.32850000000000001</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -2980,17 +3248,17 @@
       <c r="J60" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>143</v>
+      <c r="K60">
+        <v>0.32850000000000001</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -3021,17 +3289,17 @@
       <c r="J61" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>141</v>
+      <c r="K61">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -3062,17 +3330,17 @@
       <c r="J62" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>141</v>
+      <c r="K62">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -3103,17 +3371,17 @@
       <c r="J63" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>141</v>
+      <c r="K63">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -3144,17 +3412,17 @@
       <c r="J64" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>141</v>
+      <c r="K64">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -3185,17 +3453,17 @@
       <c r="J65" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>141</v>
+      <c r="K65">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -3226,17 +3494,17 @@
       <c r="J66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>141</v>
+      <c r="K66">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -3267,17 +3535,17 @@
       <c r="J67" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>141</v>
+      <c r="K67">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -3308,17 +3576,17 @@
       <c r="J68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>141</v>
+      <c r="K68">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -3349,17 +3617,17 @@
       <c r="J69" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>141</v>
+      <c r="K69">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -3390,17 +3658,17 @@
       <c r="J70" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>141</v>
+      <c r="K70">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -3431,17 +3699,17 @@
       <c r="J71" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>141</v>
+      <c r="K71">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -3472,17 +3740,17 @@
       <c r="J72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>141</v>
+      <c r="K72">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -3513,17 +3781,17 @@
       <c r="J73" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>141</v>
+      <c r="K73">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -3554,17 +3822,17 @@
       <c r="J74" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>141</v>
+      <c r="K74">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -3595,17 +3863,17 @@
       <c r="J75" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>141</v>
+      <c r="K75">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -3636,17 +3904,17 @@
       <c r="J76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>141</v>
+      <c r="K76">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -3677,17 +3945,17 @@
       <c r="J77" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>141</v>
+      <c r="K77">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -3718,17 +3986,17 @@
       <c r="J78" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>141</v>
+      <c r="K78">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -3759,17 +4027,17 @@
       <c r="J79" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>141</v>
+      <c r="K79">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -3800,17 +4068,17 @@
       <c r="J80" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>141</v>
+      <c r="K80">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -3841,17 +4109,17 @@
       <c r="J81" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>141</v>
+      <c r="K81">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -3882,17 +4150,17 @@
       <c r="J82" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>141</v>
+      <c r="K82">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -3923,17 +4191,17 @@
       <c r="J83" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>144</v>
+      <c r="K83">
+        <v>0.66883999999999999</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -3964,17 +4232,17 @@
       <c r="J84" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>144</v>
+      <c r="K84">
+        <v>0.66883999999999999</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -4005,17 +4273,17 @@
       <c r="J85" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>144</v>
+      <c r="K85">
+        <v>0.66883999999999999</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -4046,17 +4314,17 @@
       <c r="J86" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>144</v>
+      <c r="K86">
+        <v>0.66883999999999999</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -4087,17 +4355,17 @@
       <c r="J87" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>144</v>
+      <c r="K87">
+        <v>0.66883999999999999</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -4128,17 +4396,17 @@
       <c r="J88" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>144</v>
+      <c r="K88">
+        <v>0.66883999999999999</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -4169,17 +4437,17 @@
       <c r="J89" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>144</v>
+      <c r="K89">
+        <v>0.66883999999999999</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -4210,17 +4478,17 @@
       <c r="J90" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>144</v>
+      <c r="K90">
+        <v>0.66883999999999999</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -4251,17 +4519,17 @@
       <c r="J91" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>144</v>
+      <c r="K91">
+        <v>0.66883999999999999</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -4292,17 +4560,17 @@
       <c r="J92" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>144</v>
+      <c r="K92">
+        <v>0.66883999999999999</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -4333,17 +4601,17 @@
       <c r="J93" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>141</v>
+      <c r="K93">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -4374,17 +4642,17 @@
       <c r="J94" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>141</v>
+      <c r="K94">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -4415,17 +4683,17 @@
       <c r="J95" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>141</v>
+      <c r="K95">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -4456,17 +4724,17 @@
       <c r="J96" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K96" s="1" t="s">
-        <v>141</v>
+      <c r="K96">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -4497,17 +4765,17 @@
       <c r="J97" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K97" s="1" t="s">
-        <v>141</v>
+      <c r="K97">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -4538,17 +4806,17 @@
       <c r="J98" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>141</v>
+      <c r="K98">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -4579,17 +4847,17 @@
       <c r="J99" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>141</v>
+      <c r="K99">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -4620,17 +4888,17 @@
       <c r="J100" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>141</v>
+      <c r="K100">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -4661,17 +4929,17 @@
       <c r="J101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>141</v>
+      <c r="K101">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -4702,17 +4970,17 @@
       <c r="J102" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>141</v>
+      <c r="K102">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -4743,17 +5011,17 @@
       <c r="J103" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>141</v>
+      <c r="K103">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -4784,17 +5052,17 @@
       <c r="J104" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>141</v>
+      <c r="K104">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -4825,17 +5093,17 @@
       <c r="J105" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>141</v>
+      <c r="K105">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -4866,17 +5134,17 @@
       <c r="J106" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K106" s="1" t="s">
-        <v>141</v>
+      <c r="K106">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -4907,17 +5175,17 @@
       <c r="J107" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K107" s="1" t="s">
-        <v>141</v>
+      <c r="K107">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -4948,17 +5216,17 @@
       <c r="J108" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K108" s="1" t="s">
-        <v>141</v>
+      <c r="K108">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -4989,17 +5257,17 @@
       <c r="J109" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K109" s="1" t="s">
-        <v>141</v>
+      <c r="K109">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -5030,17 +5298,17 @@
       <c r="J110" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>141</v>
+      <c r="K110">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -5071,17 +5339,17 @@
       <c r="J111" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K111" s="1" t="s">
-        <v>141</v>
+      <c r="K111">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -5112,17 +5380,17 @@
       <c r="J112" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>141</v>
+      <c r="K112">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -5153,17 +5421,17 @@
       <c r="J113" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>145</v>
+      <c r="K113">
+        <v>1</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -5194,17 +5462,17 @@
       <c r="J114" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K114" s="1" t="s">
-        <v>145</v>
+      <c r="K114">
+        <v>1</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -5235,17 +5503,17 @@
       <c r="J115" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K115" s="1" t="s">
-        <v>145</v>
+      <c r="K115">
+        <v>1</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -5276,17 +5544,17 @@
       <c r="J116" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K116" s="1" t="s">
-        <v>145</v>
+      <c r="K116">
+        <v>1</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -5317,17 +5585,17 @@
       <c r="J117" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>145</v>
+      <c r="K117">
+        <v>1</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -5358,17 +5626,17 @@
       <c r="J118" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K118" s="1" t="s">
-        <v>141</v>
+      <c r="K118">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -5399,17 +5667,17 @@
       <c r="J119" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K119" s="1" t="s">
-        <v>141</v>
+      <c r="K119">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -5440,17 +5708,17 @@
       <c r="J120" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K120" s="1" t="s">
-        <v>141</v>
+      <c r="K120">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -5481,32 +5749,42 @@
       <c r="J121" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>141</v>
+      <c r="K121">
+        <v>0.13081000000000001</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>